--- a/biology/Biologie cellulaire et moléculaire/Interleukine_12/Interleukine_12.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Interleukine_12/Interleukine_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'interleukine 12 (ou IL-12) est une cytokine produite par les cellules dendritiques, les macrophages et certains types de cellules B. Elle agit en réponse à une stimulation antigénique.
 </t>
@@ -511,7 +523,9 @@
           <t>Gènes de l'IL-12</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'IL-12 est une interleukine hétérodimèrique faite de deux protéines p40 et p35 codées respectivement par les gènes IL-12B et IL-12A.
 </t>
@@ -542,7 +556,9 @@
           <t>Rôles et fonctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'IL-12 est notamment connue pour ses fonctions dans la différenciation des cellules T naïves en cellules Th1.
 L'IL-12 permet la stimulation de la production des interféron-gamma (IFN-γ) et du TNF-α par les cellules NK. Elle joue également un rôle très important dans les activités des cellules T mais aussi celle des cellules NK, donc. L'IL-12 permet de stimuler les activités cytotoxiques des cellules NK et T CD8.
